--- a/Cronograma_Brasly_Sidney__Jeanpooll.xlsx
+++ b/Cronograma_Brasly_Sidney__Jeanpooll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasl\Documents\GitHub\PY1_Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63275938-8068-4B19-9ED4-402AAFAC9841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16ED683-01F7-4BFF-A296-417EB6A1E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{8AF9E4E7-C9C7-4A73-9DB0-0C4B6F6C00A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AF9E4E7-C9C7-4A73-9DB0-0C4B6F6C00A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1824,14 +1824,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>10825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>10824</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25041</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>17932</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1854,7 +1854,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14871990" y="2413722"/>
+          <a:off x="14871990" y="2099830"/>
           <a:ext cx="771886" cy="310176"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D13908-C1F5-4708-8B68-F95F6199DA6B}">
   <dimension ref="B3:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cronograma_Brasly_Sidney__Jeanpooll.xlsx
+++ b/Cronograma_Brasly_Sidney__Jeanpooll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasl\Documents\GitHub\PY1_Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16ED683-01F7-4BFF-A296-417EB6A1E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB56F58-6AF2-4E78-A602-CA345E1AD996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AF9E4E7-C9C7-4A73-9DB0-0C4B6F6C00A2}"/>
   </bookViews>
@@ -740,13 +740,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>304799</xdr:rowOff>
+      <xdr:rowOff>304798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
+      <xdr:rowOff>295426</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -761,8 +761,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10296525" y="2705099"/>
-          <a:ext cx="742950" cy="276225"/>
+          <a:off x="10304318" y="2703876"/>
+          <a:ext cx="742950" cy="296243"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,16 +804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>753850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>305614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>300520</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -828,8 +828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11049000" y="2705100"/>
-          <a:ext cx="742950" cy="276225"/>
+          <a:off x="11058168" y="2704692"/>
+          <a:ext cx="742950" cy="300521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -880,7 +880,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:rowOff>295427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -895,8 +895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11801475" y="2705100"/>
-          <a:ext cx="742950" cy="276225"/>
+          <a:off x="11812019" y="2704693"/>
+          <a:ext cx="742950" cy="295427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D13908-C1F5-4708-8B68-F95F6199DA6B}">
   <dimension ref="B3:BM20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
